--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
   <si>
     <t xml:space="preserve">Component item
 number </t>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>Поставщик</t>
+  </si>
+  <si>
+    <t>u2</t>
+  </si>
+  <si>
+    <t>tny286dg</t>
   </si>
 </sst>
 </file>
@@ -599,7 +605,21 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -925,13 +945,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -948,7 +961,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Автор" refreshedDate="44764.358303356479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="39">
   <cacheSource type="worksheet">
-    <worksheetSource name="Таблица1"/>
+    <worksheetSource name="Таблица1" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="PSU model" numFmtId="0">
@@ -1460,7 +1473,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -1640,21 +1653,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:J37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
-  <autoFilter ref="A1:J37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:J38" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A1:J38"/>
   <tableColumns count="10">
     <tableColumn id="1" name="PSU model"/>
-    <tableColumn id="2" name="Component item_x000a_number " dataDxfId="8"/>
-    <tableColumn id="3" name="Name " dataDxfId="7"/>
-    <tableColumn id="4" name="Specification " dataDxfId="6"/>
-    <tableColumn id="5" name="Point location" dataDxfId="5"/>
-    <tableColumn id="6" name="Part number" dataDxfId="4"/>
-    <tableColumn id="7" name="Number" dataDxfId="3"/>
-    <tableColumn id="8" name="Price rub per one" dataDxfId="2"/>
-    <tableColumn id="9" name="Руб / шт" dataDxfId="1">
+    <tableColumn id="2" name="Component item_x000a_number " dataDxfId="10"/>
+    <tableColumn id="3" name="Name " dataDxfId="9"/>
+    <tableColumn id="4" name="Specification " dataDxfId="8"/>
+    <tableColumn id="5" name="Point location" dataDxfId="7"/>
+    <tableColumn id="6" name="Part number" dataDxfId="6"/>
+    <tableColumn id="7" name="Number" dataDxfId="5"/>
+    <tableColumn id="8" name="Price rub per one" dataDxfId="4"/>
+    <tableColumn id="9" name="Руб / шт" dataDxfId="3">
       <calculatedColumnFormula>H2/G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Поставщик" dataDxfId="0"/>
+    <tableColumn id="10" name="Поставщик" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2121,10 +2134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2309,7 @@
         <v>89.8</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" ref="I6:I16" si="0">H6/G6</f>
+        <f t="shared" ref="I6:I17" si="0">H6/G6</f>
         <v>8.98</v>
       </c>
       <c r="J6" s="1"/>
@@ -2491,90 +2504,86 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6" t="e">
+        <f t="shared" ref="I13" si="1">H13/G13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H14" s="4">
         <v>464.47</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>92.894000000000005</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <v>10</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H15" s="4">
         <v>305.32</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>30.532</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="4">
-        <v>5</v>
-      </c>
-      <c r="H15" s="4">
-        <v>162.26</v>
-      </c>
-      <c r="I15" s="6">
-        <f t="shared" si="0"/>
-        <v>32.451999999999998</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -2584,203 +2593,203 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>118</v>
+      <c r="D16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H16" s="4">
-        <v>342</v>
+        <v>162.26</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>32.451999999999998</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="1">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1">
-        <v>608</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+      <c r="H17" s="4">
+        <v>342</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" ref="I17:I18" si="1">H17/G17</f>
-        <v>121.6</v>
+        <f t="shared" si="0"/>
+        <v>171</v>
       </c>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G18" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H18" s="1">
-        <v>66.88</v>
+        <v>608</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="1"/>
-        <v>6.6879999999999997</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I18:I19" si="2">H18/G18</f>
+        <v>121.6</v>
+      </c>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="H19" s="1">
+        <v>66.88</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>6.6879999999999997</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H21" s="1">
         <v>172.16</v>
       </c>
-      <c r="I20" s="6">
-        <f t="shared" ref="I20:I27" si="2">H20/G20</f>
+      <c r="I21" s="6">
+        <f t="shared" ref="I21:I28" si="3">H21/G21</f>
         <v>34.432000000000002</v>
       </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="1">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1">
-        <v>180</v>
-      </c>
-      <c r="I21" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I22" s="6">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G23" s="1">
         <v>10</v>
@@ -2789,97 +2798,97 @@
         <v>80</v>
       </c>
       <c r="I23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="1">
+        <v>10</v>
+      </c>
+      <c r="H24" s="1">
         <v>80</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
-        <v>54.5</v>
-      </c>
       <c r="I24" s="6">
-        <f t="shared" si="2"/>
-        <v>54.5</v>
-      </c>
-      <c r="J24" s="1"/>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G25" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H25" s="1">
-        <v>30</v>
+        <v>54.5</v>
       </c>
       <c r="I25" s="6">
-        <f t="shared" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>121</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>54.5</v>
+      </c>
+      <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G26" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="H26" s="1">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="2"/>
-        <v>27</v>
-      </c>
-      <c r="J26" s="1"/>
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2888,23 +2897,23 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -2915,68 +2924,73 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="G28" s="1">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1">
+        <v>200</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1">
-        <v>100</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" ref="I29" si="3">H29/G29</f>
-        <v>10</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="7"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="G30" s="1">
+        <v>10</v>
+      </c>
+      <c r="H30" s="1">
+        <v>100</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" ref="I30" si="4">H30/G30</f>
+        <v>10</v>
+      </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2984,26 +2998,21 @@
         <v>63</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="1">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1">
-        <v>270</v>
-      </c>
-      <c r="I31" s="6">
-        <f t="shared" ref="I31" si="4">H31/G31</f>
-        <v>27</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3013,17 +3022,24 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="G32" s="1">
+        <v>10</v>
+      </c>
+      <c r="H32" s="1">
+        <v>270</v>
+      </c>
+      <c r="I32" s="6">
+        <f t="shared" ref="I32" si="5">H32/G32</f>
+        <v>27</v>
+      </c>
       <c r="J32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3033,104 +3049,97 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G33" s="1">
-        <v>5</v>
-      </c>
-      <c r="H33" s="1">
-        <v>100</v>
-      </c>
-      <c r="I33" s="6">
-        <f t="shared" ref="I33:I37" si="5">H33/G33</f>
-        <v>20</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
       </c>
       <c r="H34" s="1">
-        <v>1500</v>
+        <v>100</v>
       </c>
       <c r="I34" s="6">
-        <f t="shared" si="5"/>
-        <v>300</v>
+        <f t="shared" ref="I34:I38" si="6">H34/G34</f>
+        <v>20</v>
       </c>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1">
         <v>5</v>
       </c>
       <c r="H35" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5</v>
+      </c>
+      <c r="H36" s="1">
         <v>424</v>
       </c>
-      <c r="I35" s="6">
-        <f t="shared" si="5"/>
+      <c r="I36" s="6">
+        <f t="shared" si="6"/>
         <v>84.8</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="16">
-        <v>10</v>
-      </c>
-      <c r="H36" s="16">
-        <v>670</v>
-      </c>
-      <c r="I36" s="17">
-        <f t="shared" si="5"/>
-        <v>67</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -3141,29 +3150,59 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="16">
+        <v>10</v>
+      </c>
+      <c r="H37" s="16">
+        <v>670</v>
+      </c>
+      <c r="I37" s="17">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E38" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>5</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H38" s="16">
         <v>228</v>
       </c>
-      <c r="I37" s="17">
-        <f t="shared" si="5"/>
+      <c r="I38" s="17">
+        <f t="shared" si="6"/>
         <v>45.6</v>
       </c>
-      <c r="J37" s="19"/>
+      <c r="J38" s="19"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  <conditionalFormatting sqref="F1:F12 F14:F1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="129">
   <si>
     <t xml:space="preserve">Component item
 number </t>
@@ -417,6 +417,18 @@
   </si>
   <si>
     <t>tny286dg</t>
+  </si>
+  <si>
+    <t>СТАТУС</t>
+  </si>
+  <si>
+    <t>ЕСТЬ</t>
+  </si>
+  <si>
+    <t>27402s</t>
+  </si>
+  <si>
+    <t>Шим контроллер</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -551,12 +563,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -600,26 +623,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <font>
         <b val="0"/>
@@ -644,22 +655,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -705,29 +700,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="SimSun"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -909,6 +886,74 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="SimSun"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="SimSun"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <right style="thin">
           <color indexed="64"/>
@@ -944,6 +989,20 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1653,21 +1712,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:J38" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A1:J38"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:K39"/>
+  <tableColumns count="11">
     <tableColumn id="1" name="PSU model"/>
-    <tableColumn id="2" name="Component item_x000a_number " dataDxfId="10"/>
-    <tableColumn id="3" name="Name " dataDxfId="9"/>
-    <tableColumn id="4" name="Specification " dataDxfId="8"/>
-    <tableColumn id="5" name="Point location" dataDxfId="7"/>
-    <tableColumn id="6" name="Part number" dataDxfId="6"/>
-    <tableColumn id="7" name="Number" dataDxfId="5"/>
-    <tableColumn id="8" name="Price rub per one" dataDxfId="4"/>
-    <tableColumn id="9" name="Руб / шт" dataDxfId="3">
+    <tableColumn id="2" name="Component item_x000a_number " dataDxfId="9"/>
+    <tableColumn id="3" name="Name " dataDxfId="8"/>
+    <tableColumn id="4" name="Specification " dataDxfId="7"/>
+    <tableColumn id="5" name="Point location" dataDxfId="6"/>
+    <tableColumn id="6" name="Part number" dataDxfId="5"/>
+    <tableColumn id="7" name="Number" dataDxfId="4"/>
+    <tableColumn id="8" name="Price rub per one" dataDxfId="3"/>
+    <tableColumn id="9" name="Руб / шт" dataDxfId="2">
       <calculatedColumnFormula>H2/G2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Поставщик" dataDxfId="2"/>
+    <tableColumn id="10" name="Поставщик" dataDxfId="1"/>
+    <tableColumn id="11" name="СТАТУС" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2134,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,10 +2210,10 @@
     <col min="6" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -2184,8 +2244,11 @@
       <c r="J1" s="20" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>49</v>
       </c>
@@ -2206,8 +2269,9 @@
       <c r="H2" s="13"/>
       <c r="I2" s="14"/>
       <c r="J2" s="18"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2228,8 +2292,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="6"/>
       <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2260,8 +2325,9 @@
         <v>112.6</v>
       </c>
       <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -2282,8 +2348,9 @@
       <c r="H5" s="4"/>
       <c r="I5" s="6"/>
       <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2313,8 +2380,9 @@
         <v>8.98</v>
       </c>
       <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2344,8 +2412,9 @@
         <v>17.96</v>
       </c>
       <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2377,8 +2446,9 @@
       <c r="J8" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2408,8 +2478,9 @@
         <v>32.204000000000001</v>
       </c>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2439,8 +2510,11 @@
         <v>2.0931999999999999</v>
       </c>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2470,8 +2544,11 @@
         <v>1.6597999999999999</v>
       </c>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2501,8 +2578,9 @@
         <v>92.894000000000005</v>
       </c>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -2524,8 +2602,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -2555,8 +2634,9 @@
         <v>92.894000000000005</v>
       </c>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>117</v>
       </c>
@@ -2586,8 +2666,11 @@
         <v>30.532</v>
       </c>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -2613,8 +2696,11 @@
         <v>32.451999999999998</v>
       </c>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2640,8 +2726,11 @@
         <v>171</v>
       </c>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -2667,8 +2756,9 @@
         <v>121.6</v>
       </c>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
@@ -2696,8 +2786,9 @@
       <c r="J19" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -2720,8 +2811,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="7"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2747,8 +2839,9 @@
         <v>34.432000000000002</v>
       </c>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>101</v>
@@ -2773,8 +2866,11 @@
         <v>18</v>
       </c>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2802,8 +2898,11 @@
         <v>8</v>
       </c>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -2831,8 +2930,9 @@
       <c r="J24" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -2848,18 +2948,21 @@
         <v>80</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="1">
         <v>54.5</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="3"/>
-        <v>54.5</v>
+        <v>27.25</v>
       </c>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -2889,8 +2992,11 @@
       <c r="J26" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2916,8 +3022,9 @@
         <v>27</v>
       </c>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -2943,8 +3050,9 @@
         <v>4</v>
       </c>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -2963,8 +3071,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="7"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2992,8 +3101,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -3014,8 +3126,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="7"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>63</v>
       </c>
@@ -3041,8 +3154,9 @@
         <v>27</v>
       </c>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -3061,8 +3175,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="7"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
@@ -3088,8 +3203,9 @@
         <v>20</v>
       </c>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -3115,8 +3231,9 @@
         <v>300</v>
       </c>
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
@@ -3142,8 +3259,9 @@
         <v>84.8</v>
       </c>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>63</v>
       </c>
@@ -3169,8 +3287,9 @@
         <v>67</v>
       </c>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>63</v>
       </c>
@@ -3196,13 +3315,36 @@
         <v>45.6</v>
       </c>
       <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="19">
+        <v>5</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="22">
+        <f>H39/G39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F14:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t xml:space="preserve">Component item
 number </t>
@@ -2196,8 +2196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2478,9 @@
         <v>32.204000000000001</v>
       </c>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2634,7 +2636,9 @@
         <v>92.894000000000005</v>
       </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2746,17 +2750,19 @@
         <v>66</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <v>608</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ref="I18:I19" si="2">H18/G18</f>
-        <v>121.6</v>
+        <v>304</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2786,7 +2792,9 @@
       <c r="J19" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2839,7 +2847,9 @@
         <v>34.432000000000002</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
@@ -2930,7 +2940,9 @@
       <c r="J24" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3022,7 +3034,9 @@
         <v>27</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="130">
   <si>
     <t xml:space="preserve">Component item
 number </t>
@@ -263,9 +263,6 @@
     <t>FAN3224TMX</t>
   </si>
   <si>
-    <t>u18, u20</t>
-  </si>
-  <si>
     <t>PBSS4240T</t>
   </si>
   <si>
@@ -429,6 +426,12 @@
   </si>
   <si>
     <t>Шим контроллер</t>
+  </si>
+  <si>
+    <t>P21D/E P21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u18, u20? U33, </t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2012,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2019,7 +2022,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -2029,7 +2032,7 @@
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2049,7 +2052,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -2069,17 +2072,17 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2089,12 +2092,12 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2104,12 +2107,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2134,17 +2137,17 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -2154,7 +2157,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2164,12 +2167,12 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -2179,12 +2182,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2196,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,7 +2218,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2230,22 +2233,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2444,7 +2447,7 @@
         <v>22.541999999999998</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -2479,7 +2482,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2513,7 +2516,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2547,7 +2550,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
@@ -2592,10 +2595,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2608,7 +2611,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -2637,12 +2640,12 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2701,7 +2704,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,7 +2717,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>61</v>
@@ -2731,7 +2734,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2761,7 +2764,7 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2790,10 +2793,10 @@
         <v>6.6879999999999997</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -2823,7 +2826,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2831,7 +2834,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>72</v>
@@ -2848,22 +2851,22 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
@@ -2877,7 +2880,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,16 +2889,16 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" s="1">
         <v>10</v>
@@ -2909,7 +2912,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2919,13 +2922,13 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G24" s="1">
         <v>10</v>
@@ -2938,10 +2941,10 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2951,13 +2954,13 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -2971,7 +2974,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2980,16 +2983,16 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="F26" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G26" s="1">
         <v>50</v>
@@ -3002,10 +3005,10 @@
         <v>0.6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3015,13 +3018,13 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1">
         <v>10</v>
@@ -3035,7 +3038,7 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3045,13 +3048,13 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1">
         <v>50</v>
@@ -3076,7 +3079,7 @@
         <v>58</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>58</v>
@@ -3093,16 +3096,16 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="1">
         <v>10</v>
@@ -3116,7 +3119,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3125,16 +3128,16 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3149,13 +3152,13 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="1">
         <v>10</v>
@@ -3177,13 +3180,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3198,13 +3201,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -3226,13 +3229,13 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G35" s="1">
         <v>5</v>
@@ -3254,13 +3257,13 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
@@ -3282,13 +3285,13 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>108</v>
-      </c>
       <c r="F37" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" s="16">
         <v>10</v>
@@ -3310,13 +3313,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>110</v>
-      </c>
       <c r="F38" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
@@ -3336,11 +3339,11 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G39" s="19">
         <v>5</v>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
   <si>
     <t xml:space="preserve">Component item
 number </t>
@@ -432,6 +432,15 @@
   </si>
   <si>
     <t xml:space="preserve">u18, u20? U33, </t>
+  </si>
+  <si>
+    <t>Операционный усилитель</t>
+  </si>
+  <si>
+    <t>u17</t>
+  </si>
+  <si>
+    <t>LM2904</t>
   </si>
 </sst>
 </file>
@@ -1715,8 +1724,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K39" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:K39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K40" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:K40"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PSU model"/>
     <tableColumn id="2" name="Component item_x000a_number " dataDxfId="9"/>
@@ -2197,10 +2206,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,6 +3365,30 @@
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
     </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="22" t="e">
+        <f>H40/G40</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F14:F1048576">
     <cfRule type="duplicateValues" dxfId="14" priority="2"/>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -311,9 +311,6 @@
     <t>AZ431</t>
   </si>
   <si>
-    <t>u10</t>
-  </si>
-  <si>
     <t>HBR3200</t>
   </si>
   <si>
@@ -441,6 +438,9 @@
   </si>
   <si>
     <t>LM2904</t>
+  </si>
+  <si>
+    <t>u10,u19</t>
   </si>
 </sst>
 </file>
@@ -2021,7 +2021,7 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -2091,7 +2091,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -2106,7 +2106,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2116,12 +2116,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -2166,7 +2166,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -2176,7 +2176,7 @@
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -2191,12 +2191,12 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,7 +2227,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2242,22 +2242,22 @@
         <v>3</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2456,7 +2456,7 @@
         <v>22.541999999999998</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="1"/>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2525,7 +2525,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="22.5" x14ac:dyDescent="0.25">
@@ -2604,10 +2604,10 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
@@ -2649,12 +2649,12 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>46</v>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2726,7 +2726,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>61</v>
@@ -2743,7 +2743,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2802,10 +2802,10 @@
         <v>6.6879999999999997</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
@@ -2835,7 +2835,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2843,7 +2843,7 @@
         <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>72</v>
@@ -2860,13 +2860,13 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>73</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>75</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2950,10 +2950,10 @@
         <v>8</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>80</v>
@@ -3014,10 +3014,10 @@
         <v>0.6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3101,17 +3101,17 @@
     </row>
     <row r="30" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>88</v>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3137,16 +3137,16 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3161,13 +3161,13 @@
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="1">
         <v>10</v>
@@ -3189,13 +3189,13 @@
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3210,13 +3210,13 @@
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G34" s="1">
         <v>5</v>
@@ -3238,13 +3238,13 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1">
         <v>5</v>
@@ -3266,13 +3266,13 @@
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G36" s="1">
         <v>5</v>
@@ -3294,13 +3294,13 @@
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="16" t="s">
-        <v>107</v>
-      </c>
       <c r="F37" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G37" s="16">
         <v>10</v>
@@ -3322,13 +3322,13 @@
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="F38" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G38" s="16">
         <v>5</v>
@@ -3348,11 +3348,11 @@
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
       <c r="D39" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" s="19">
         <v>5</v>
@@ -3372,13 +3372,13 @@
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="F40" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -2208,8 +2208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Specification_исходная.xlsx
+++ b/Specification_исходная.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
   <si>
     <t xml:space="preserve">Component item
 number </t>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>u10,u19</t>
+  </si>
+  <si>
+    <t>u25</t>
+  </si>
+  <si>
+    <t>MP2964B</t>
+  </si>
+  <si>
+    <t>P21D/E, P21</t>
   </si>
 </sst>
 </file>
@@ -1724,8 +1733,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K40" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A1:K40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:K41" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:K41"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PSU model"/>
     <tableColumn id="2" name="Component item_x000a_number " dataDxfId="9"/>
@@ -2206,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,7 +3031,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3388,6 +3397,28 @@
       </c>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="22" t="e">
+        <f>H41/G41</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F12 F14:F1048576">
